--- a/Stoic and Atomic Arrays with labels.xlsx
+++ b/Stoic and Atomic Arrays with labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Junior Year\Spring\5440\Homework 3\Homework 3 WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Junior Year\Spring\5440\Homework 3\Homework 3 WIP\Homework 3 Submission Simon, Andrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F154E-E625-4202-A0B5-A05D5EA7D58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FC753-71B0-4745-B0EA-B64748377D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{8DF146F7-E12E-4970-8C07-847B9F6922D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8DF146F7-E12E-4970-8C07-847B9F6922D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stoic and Atomic Arrays" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>V1</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Upper Bound</t>
   </si>
   <si>
-    <t>specified in problem statement</t>
-  </si>
-  <si>
     <t>b8 urea out</t>
   </si>
   <si>
@@ -195,6 +192,30 @@
   </si>
   <si>
     <t>E (umol gDW-1)</t>
+  </si>
+  <si>
+    <t>specified in problem statement&gt;</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>Carbamoyl phosphate</t>
+  </si>
+  <si>
+    <t>Km(mM) in homo sapiens (range averaged from Brenda)</t>
+  </si>
+  <si>
+    <t>Concentration(M) (from Mammalian iBMK) (From Park et al supplemental)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note the Yellow cells could not be found on Brenda or in Park et al therefore I </t>
+  </si>
+  <si>
+    <t>Takes Place in vi</t>
+  </si>
+  <si>
+    <t>Concentration(mM) (from Mammalian iBMK) (From Park et al supplemental)</t>
   </si>
 </sst>
 </file>
@@ -222,12 +243,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,9 +269,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489A314D-CEF9-419C-B433-B999A06A64D9}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -616,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
         <v>9</v>
@@ -2462,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDE1761-1011-4D28-8B89-DAAD792DA9D3}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2475,9 +2512,14 @@
     <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="34.26953125" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -2485,34 +2527,71 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>H2*(M4/(N4+M4))*(M6/(N6+M6))</f>
+        <v>6.9365776817587568</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="E2">
+        <v>203</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
         <f>(E2*3600)*(0.01/1000)</f>
         <v>7.3080000000000007</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>203</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <f>L2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>(1.24+0.13)/2</f>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2520,14 +2599,33 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">(E3*3600)*(0.01/1000)</f>
+        <f>H3</f>
         <v>1.242</v>
       </c>
       <c r="E3">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="0">(E3*3600)*(0.01/1000)</f>
+        <v>1.242</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M13" si="1">L3*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>(0.55+0.36)/2</f>
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2535,14 +2633,36 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <f>H4*(M8/(N8+M8))</f>
+        <v>3.3484508899143048E-2</v>
+      </c>
+      <c r="E4">
+        <v>249</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>8.9640000000000004</v>
       </c>
-      <c r="E4">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <f>4.67*10^-3</f>
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>4.67</v>
+      </c>
+      <c r="N4">
+        <f>(0.44+0.041)/2</f>
+        <v>0.24049999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2550,14 +2670,33 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <f>H5</f>
+        <v>3.1716000000000002</v>
+      </c>
+      <c r="E5">
+        <v>88.1</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>3.1716000000000002</v>
       </c>
-      <c r="E5">
-        <v>88.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2565,14 +2704,36 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f>H6*(M13/(N13+M13))</f>
+        <v>0.4711219329462446</v>
+      </c>
+      <c r="E6">
+        <v>13.7</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.49320000000000003</v>
       </c>
-      <c r="E6">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f>1.49*10^-2</f>
+        <v>1.49E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="N6">
+        <f>0.029</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2580,14 +2741,33 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>H7</f>
         <v>0.49320000000000003</v>
       </c>
       <c r="E7">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f>(E7*3600)*(0.01/1000)</f>
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>(0.53+0.18)/2</f>
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2597,8 +2777,26 @@
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <f>2.55*10^-4</f>
+        <v>2.5500000000000002E-4</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+      <c r="N8">
+        <f>(136+0.02)/2</f>
+        <v>68.010000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2608,8 +2806,20 @@
       <c r="C9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2619,8 +2829,22 @@
       <c r="C10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <f>6.54*10^-5</f>
+        <v>6.5400000000000004E-5</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2630,8 +2854,19 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2641,8 +2876,19 @@
       <c r="C12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2652,8 +2898,26 @@
       <c r="C13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <f>2.55*10^-4</f>
+        <v>2.5500000000000002E-4</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+      <c r="N13">
+        <f>(0.022+0.0019)/2</f>
+        <v>1.1949999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2664,7 +2928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +2939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2697,7 +2961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2707,8 +2971,11 @@
       <c r="C18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2719,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2741,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3102,7 +3369,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>-1</v>
